--- a/medicine/Psychotrope/Supermurgeman/Supermurgeman.xlsx
+++ b/medicine/Psychotrope/Supermurgeman/Supermurgeman.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Supermurgeman est le héros de la bande dessinée du même nom.
 Il a été créé par Mathieu Sapin (MathieuSap' ou Mathsap).
@@ -518,7 +530,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Supermurgeman est né sur un radeau dans les mers du sud, d'une secrétaire de direction de la Sofroco et d'un agent commercial de la Gedec, à la suite d'une collision entre deux cargos de ces sociétés (transportant de la bière et de l'aspirine). Il fut nourri avec la bière récupérée lors du naufrage jusqu'à ce que le radeau atteigne une île inconnue.
 Supermurgeman grandit seul dans la jungle, ses parents étant morts d'une cirrhose juste avant d'atteindre le rivage.
@@ -551,46 +565,120 @@
           <t>Description de Supermurgeman</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>C'est un "super anti-héros", grand, costaud, des cheveux blond mi-longs coiffés en arrière, mais complètement naïf et manipulable. Les habitants de l'île le qualifient souvent de "bien chic type". Quant à ses ennemis, Supermurgeman est pour eux une "grosse brute". 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un "super anti-héros", grand, costaud, des cheveux blond mi-longs coiffés en arrière, mais complètement naïf et manipulable. Les habitants de l'île le qualifient souvent de "bien chic type". Quant à ses ennemis, Supermurgeman est pour eux une "grosse brute". 
 Il a particulièrement horreur qu'on lui touche ses côtes flottantes.
-Son costume
-Comme tout super-héros, Supermurgeman s'est taillé un costume "à la mesure de son ambition"… un loup, des bottes et un slip rouge !
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Supermurgeman</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Supermurgeman</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Description de Supermurgeman</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Son costume</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Comme tout super-héros, Supermurgeman s'est taillé un costume "à la mesure de son ambition"… un loup, des bottes et un slip rouge !
 Son slip lui permet toutefois de transporter facilement certains objets, grâce à son textile extensible, comme des bières ou des outils offerts par le sorcier du village.
-Ses pouvoirs
-La source de bière a fait découvrir à Supermurgeman les pouvoirs 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Supermurgeman</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Supermurgeman</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Description de Supermurgeman</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Ses pouvoirs</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>La source de bière a fait découvrir à Supermurgeman les pouvoirs 
 D'avoir une force surhumaine telle qu'il est capable de casser un cocotier ou d'assommer un homme d'un seul coup de poing.
 De cicatriser très rapidement ses blessures et sans trop souffrir, grâce à un taux d'alcool élevé dans le sang.
 De pouvoir paralyser ou tuer ses adversaires en leur vomissant dessus, après avoir ingurgité une bière (Supermurgebière de préférence).</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Supermurgeman</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Psychotrope/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Supermurgeman</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Les personnages</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Sultan : Fidèle chien de Supermurgeman.
 Le shérif : Représente la loi et l'autorité du village.
@@ -602,31 +690,33 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Supermurgeman</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Psychotrope/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Supermurgeman</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Les ennemis</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Voici les ennemis récurrents à qui Supermurgeman doit faire face :
 La Sofroco-Gedec : Fusion de la Sofroco et de la Gedec, c'est une puissante multinationale, qui tente de convertir les habitants de l'île au capitalisme. Le siège de la Sofroco-Gedec sur l'île est le seul building. Il y a 3 actionnaires principaux sur l'île : Jean Marshal, Philippe Duroy et Jean-Michel Letellier. Cette société possède plusieurs robots grossièrement homéomorphes, destinés à diffuser des messages publicitaires, mais Supermurgeman ne faisant pas la différence avec de vrai humain, il les détruit quand ils ne lui répondent pas.
@@ -638,31 +728,33 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>Supermurgeman</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Psychotrope/Articles liés</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Supermurgeman</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>parodies</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">L'univers de Supermurgeman comprend de nombreux clins d'œil aux bandes dessinées classiques. 
 Supermurgeman sauve Tintin d'une BD underground (à l'époque ou Supermurgeman étant lui-même un personnage underground).
@@ -676,31 +768,33 @@
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
         <is>
           <t>Supermurgeman</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>Portail:Psychotrope/Articles liés</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Supermurgeman</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>Liste des épisodes</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t>Les épisodes suivants ont été publiés dans le mensuel Psikopat : 
 L'aventure commence
